--- a/ai-testing-guide/AI-testing-guide_v20260129.xlsx
+++ b/ai-testing-guide/AI-testing-guide_v20260129.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsk.imgw\Desktop\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA27F4B-8421-4645-9F8A-37AEE214CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28718B-E417-4FB3-BF51-68ADB4C11CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11784" yWindow="3732" windowWidth="34560" windowHeight="18600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23664" yWindow="984" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Introduction" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="523">
   <si>
     <t>https://github.com/OWASP/www-project-ai-testing-guide/tree/main/Document</t>
   </si>
@@ -1656,20 +1656,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1. 導入</t>
-    <rPh sb="3" eb="5">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AI テストの重要性</t>
-    <rPh sb="7" eb="10">
-      <t>ジュウヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>AI テストが独特な理由</t>
     <rPh sb="7" eb="9">
       <t>ドクトク</t>
@@ -1677,99 +1663,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AI テストは極めて重要です。その理由は、AI は今や医療や金融から自動車やサイバー セキュリティに至るまで、あらゆる業界の重要な意思決定と日常業務の基盤となっているからです。AI システムが真に信頼性が高く、セキュアで、正確で、倫理的であることを保証するには、基本的な機能にとどまらないテストが必要です。差別を防ぐためのバイアスと公平性の管理策を検証し、モデルを欺いたり乗っ取ったりするために細工された入力に対する敵対的堅牢性チェックを実施し、モデル抽出、データ漏洩、ポイズニング攻撃のシミュレーションといったセキュリティとプライバシーの評価を行う必要があります。差分プライバシーなどの技術を組み込むことで、データ保護法への準拠を確保しながら、個人の記録を保護することができます。このガイドの AI テストへの包括的なアプローチは、隠れたリスクを明らかにし、AI 駆動型ソリューションへの信頼を維持することを目的としています。</t>
-    <rPh sb="17" eb="19">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="170" eb="173">
-      <t>カンリサク</t>
-    </rPh>
-    <rPh sb="383" eb="386">
-      <t>クドウガタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AI システムのテストは、従来のソフトウェア テストと比較して、独特の課題を伴います。AI モデル、特に機械学習（ML）ベースのモデルは非決定論的な動作を示します。多くの AI アルゴリズムはランダム性を伴うため、学習中または推論中の出力は再現性がなく確率的になります。そのため、許容可能な変動を考慮した専用の回帰テストと安定性テストが必要です。AI モデルは学習データの品質と分布から学習し、それらに依存します。従来のコードとは異なり、入力の変化（データ ドリフト）によって性能が気づかれることなく低下する可能性があるため、テストではデータ品質とモデル出力の両方を経時的に検証する必要があります。</t>
-    <rPh sb="32" eb="34">
-      <t>ドクトク</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>セイノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AI システムは学習データと入力データの品質と整合性に大きく依存するため、信頼性、公平性、そして精度の高いモデル性能を確保するには、データ中心のテスト手法が不可欠です。学習データに潜む意図しないバイアスは、差別的な結果につながる可能性があります。AI テストには、従来のソフトウェア QA には含まれていない公平性評価と緩和戦略を含める必要があります。深層学習ニューラル ネットワークなど、一部の AI システムは複雑で「ブラックボックス」であるため、内部の意思決定プロセスが分かりにくくなり、検証と妥当性確認が複雑になる可能性があります。敵対的または攻撃的なセキュリティ テストは推奨されるだけでなく、AI テクノロジーには不可欠です。</t>
-    <rPh sb="8" eb="10">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="176" eb="180">
-      <t>シンソウガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AI モデルは、巧妙に作成された入力（敵対的サンプル）によって欺かれたり操作されたりする可能性があるため、組織は標準的な機能テストをはるかに超える、専用の敵対的堅牢性テスト手法を採用する必要があります。こうした専門的なセキュリティ評価がなければ、AI システムは、整合性、信頼性、そして全体的な信頼性を損なう可能性のある、巧妙な攻撃に対して脆弱なままとなります。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>最後に、すべての AI モデルは絶えず変化する環境で稼働しているため、ドリフト、新たなバイアス、または新しい脆弱性を検出するには、データとモデルの性能の両方を継続的に監視し、自動的に再検証することが不可欠です。</t>
-    <rPh sb="73" eb="75">
-      <t>セイノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>OWASP AI Testing Guide の目的と範囲</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>OWASP AI Testing Guide は、ソフトウェア開発者、アーキテクト、データ アナリスト、研究者、リスク担当者にとって包括的な参考情報として設計されており、製品開発ライフサイクル全体を通じて AI リスクが体系的に対処されることを保証します。データ中心の検証と公平性評価から、敵対的堅牢性、継続的な性能監視に至るまで、リスクの検証と管理の証拠を文書化して提供する堅牢なテスト スイートを概説しています。このガイダンスに従うことで、チームは AI システムを自信を持って本番環境に導入するために必要なレベルの信頼性を確立し、潜在的なバイアス、脆弱性、性能低下が事前に特定され、軽減されているという検証可能な保証を得ることができます。</t>
-    <rPh sb="70" eb="74">
-      <t>サンコウジョウホウ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>セイノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1.1. OWASP AI Testing の原則</t>
-    <rPh sb="23" eb="25">
-      <t>ゲンソク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>効果的な AI テストは、セキュリティ、プライバシー、責任ある AI、信頼できる AI システムという 4 つのマクロ ドメインを基盤としています。これら 4 つのコア ドメインを選定した理由は、AI リスク全般に包括的に対応できるためです。セキュリティは、敵対的脅威やインフラストラクチャの脅威に対する耐性を確保します。プライバシーは、意図しないデータ漏洩や推論攻撃を防ぎます。責任ある AI は、倫理的な行動と公平性を重視し、偏見や誤用を防ぎます。信頼できる AI システムは、説明可能性、安定性、ガバナンスの整合性を通じて、継続的な信頼性を維持します。これらが一体となって、安全で信頼性の高い AI のデプロイメントを検証、制御、維持するための包括的なフレームワークを形成します。各ドメインには、現代の AI アプリケーション評価の手引きとなる重要な原則が含まれています。</t>
-    <rPh sb="90" eb="92">
-      <t>センテイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="351" eb="353">
-      <t>ゲンダイ</t>
-    </rPh>
-    <rPh sb="369" eb="371">
-      <t>テビ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1895,28 +1789,6 @@
     </rPh>
     <rPh sb="42" eb="45">
       <t>シンライセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>(1) セキュリティ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>(2) プライバシー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>(3) 責任ある AI</t>
-    <rPh sb="4" eb="6">
-      <t>セキニン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>(4) 信頼できる AI</t>
-    <rPh sb="4" eb="6">
-      <t>シンライ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2219,856 +2091,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AI システムは、敵対的な脅威やシステム的な悪用に対して耐性を持つ必要があります。これには、モデルの堅牢性だけでなく、フルスタックのセキュリティも含まれます。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>プロンプトと入力の制御</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: システム プロンプト、指示、およびユーザー入力がインジェクションや不正操作から保護されていることを確実にします。</t>
-    </r>
-    <rPh sb="47" eb="49">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>カクジツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インフラストラクチャ セキュリティ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: API エンドポイント、プラグイン、RAG パイプライン、エージェント ワークフローの脆弱性を評価します。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>敵対的堅牢性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 回避、汚染、モデル盗難、脱獄、間接プロンプト インジェクションに対するシステムの耐性を検証します。</t>
-    </r>
-    <rPh sb="12" eb="14">
-      <t>オセン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サプライチェーン リスク</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 汚染、不正な改ざん、またはサードパーティによる侵害がないか、モデルと依存関係をテストします。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AI システムで公開される機密データや AI システムによって生成される機密データの機密性と制御を確保します。</t>
-    <rPh sb="13" eb="15">
-      <t>キミツ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データ漏洩防止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 学習データ、プライベート コンテキスト、またはユーザー入力の意図しない漏洩をテストします。</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>モデルの抽出と流出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: プロプラエタリーなモデルをコピーまたは複製しようとする攻撃をシミュレートします。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メンバーシップとプロパティの推論耐性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 学習で特定のデータが使用されたかどうかを推論するプライバシー攻撃に対するモデルの露呈を評価します。</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ロテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>継続的な評価と緩和戦略を通じて、安全で倫理的かつ整合性のある成果を促進します。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バイアスと公平性の監査</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 差別的な出力を特定し、多様な人口統計グループとエッジ ケースにわたってモデルの動作をテストします。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ガードレールの範囲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>:安全フィルター、拒否動作、悪用防止メカニズムをテストします。</t>
-    </r>
-    <rPh sb="24" eb="26">
-      <t>アクヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>安全性アライメント</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: アライメント 迂回攻撃 (例: DAN、ロールプレイ エクスプロイト) に対するシステムの応答を評価します。</t>
-    </r>
-    <rPh sb="19" eb="21">
-      <t>ウカイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>透明性、監視、ガバナンスを通じて長期的な信頼をサポートします。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>説明可能性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: ユーザーと監査人が意思決定の方法と理由を理解できるようにします。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一貫性と安定性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: プロンプトのわずかな変更に対する応答の変動、回帰、予期しない動作についてモデルをテストします。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>継続的な監視</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: デプロイメント後の可観測性、ドリフト検出、インシデント アラートを適用します。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>毒性と悪用の検出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: モデルがヘイト スピーチ、誤情報、有害な出力の処理方法を検証します。</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>アクヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>ショリホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ポリシーと規制の整合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: テスト プロセスとシステムの動作が NIST AI RMF、ISO 42001、OWASP Top 10 LLM などのフレームワークに準拠していることを確実にします。</t>
-    </r>
-    <rPh sb="90" eb="92">
-      <t>カクジツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ISO/IEC 23053 では、ML ベースの AI システムのライフサイクルが、それぞれ明確な目的、成果物、ガバナンスとの接点を持つ一連の繰り返し可能なフェーズに構造化されています。</t>
-    <rPh sb="63" eb="65">
-      <t>セッテン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>AI をテストするタイミング</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1. 計画と範囲設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: このフェーズでは、主要なステークホルダー、規制要件、組織のリスク許容度を特定しながら、明確なビジネス目標、成功指標、ML ユースケースを確立します。</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2. データ準備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: このフェーズでは、生のデータ ソースを収集して文書化し、前処理パイプラインを通じてプロファイリングと品質チェックを実施し、データの完全な追跡可能性を実現するためにバージョン管理と系統追跡を実装します。</t>
-    </r>
-    <rPh sb="75" eb="77">
-      <t>カンゼン</t>
-    </rPh>
-    <rPh sb="78" eb="83">
-      <t>ツイセキカノウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3. モデルの開発と学習</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 前処理コード、カスタム レイヤー、特徴量エンジニアリング関数が期待どおりに動作するかを検証します。モデルのコードに対して静的コードスキャン（SAST など）を実行し、安全でない依存関係や設定ミスがないか確認します。学習、検証、テストの分割間でデータ漏洩がないことを確認します。チューニングの変更によって、回帰なしに汎化が向上することを確実にします。</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>カクジツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3. モデルの開発と学習</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: このフェーズでは、適切なアルゴリズムとアーキテクチャを選択し、特徴エンジニアリングを使用して厳選されたデータセットでモデル学習を実施し、学習プロセスを制御するパラメータ (ハイパー パラメータなど) や性能指標などの実験をモデル レジストリに記録します。</t>
-    </r>
-    <rPh sb="75" eb="77">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4. 検証と評価</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: このフェーズでは、予約済みの敵対的データセットを使用してモデルをテストし、公平性、堅牢性、セキュリティの評価を実行し、モデルが機能、倫理、規制の基準を満たしていることを確認します。</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6. 運用と保守</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>:このフェーズでは、AI 製品が実稼働環境にある間に、性能、データ ドリフト、監査ログを継続的に監視し、異常やコンプライアンス違反に関するアラートをトリガーするとともに、定期的に最新データでモデルを再学習し、セキュリティ、プライバシー、公平性のコントロールを再検証します。また、必要に応じて文書、学習、ポリシーを更新します。</t>
-    </r>
-    <rPh sb="35" eb="37">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AI システムが開始から継続的な運用に至るまで正確、安全、公平、信頼できる状態を保つためには、AI テストを AI システムのライフサイクル全体に統合する必要があります。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1. 計画と範囲設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: ビジネス目標、成功指標、機械学習のユースケースがテスト可能かつ追跡可能であることを確認します。AI 固有のリスク（敵対的リスク、プライバシー リスク、コンプライアンス リスク）を特定し、それらを管理策にマッピングします。ステークホルダーの役割、規制上の制約、リスク許容基準が文書化されていることを検証します。</t>
-    </r>
-    <rPh sb="53" eb="55">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2. データ準備</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: データ品質テストを実施し、欠損値、外れ値、スキーマの不一致、重複がないかをチェックします。特徴量分布（特定の変数の値がどのように分布または配置されているか）を過去のプロファイルと比較検証し、ドリフトしきい値（ベースラインからのデータドリフト）を設定します。すべてのデータソース、変換、バージョンが記録され、追跡可能であることを確実にします。</t>
-    </r>
-    <rPh sb="173" eb="175">
-      <t>カクジツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5. デプロイメントと統合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: このフェーズでは、学習済みの AI モデルを準備し、サービス（つまり、モデルをマイクロ サービスまたは API にラップする）またはエッジ デプロイメント（つまり、IoT ゲートウェイや携帯電話などのリソースが制限されたデバイス用にモデルを変換および最適化する）用のデプロイ可能なアーティファクトにバンドルし、CI/CD を介してビルド、テスト、リリースのワークフローを自動化し、インフラストラクチャのセキュリティ対策を検証します。</t>
-    </r>
-    <rPh sb="24" eb="26">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4. 検証と評価</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: ホールドアウトおよび敵対的テストセットにおいて、ベンチマークと比較して正解率、適合率／再現率、AUC などを測定することで性能を検証します。公平性とバイアスの監査を実施し、人口統計スライスとエッジ ケース全体にわたってモデル出力を評価します。ニューラル ネットワークやその他の敵対的攻撃に対する敵対的サンプル作成のための既知の手法を適用することで、敵対的堅牢性テストを実施し、耐性を評価します。プライバシー攻撃を実施し、メンバーシップ推論、モデル抽出、汚染をシミュレートすることで、プライバシー保護を確認します。予測結果を入力特徴に帰属させることで、モデルの決定が解釈可能かつ妥当であることを検証します。</t>
-    </r>
-    <rPh sb="45" eb="48">
-      <t>セイカイリツ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>オセン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5. 運用と保守</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>: 運用中の入力と出力を検証ベースラインと継続的に比較することで、ドリフト検出のための回帰テストを実施します。性能の低下、データ ドリフト、またはセキュリティ異常が発生した場合に、監視ルールが正しく実行されることを検証します。モデルの更新またはデータ更新後には、性能、公平性、堅牢性を再評価します。セキュリティ、プライバシー、倫理に関する管理策が引き続き有効であり、文書化されていることを定期的に確認します。</t>
-    </r>
-    <rPh sb="63" eb="65">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>セイノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>このガイドのテスト目標の一つは、OWASP の LLM 固有のテスト ケースと、OWASP AI Exchange のより広範な脅威をライフサイクル フェーズに統合し、リリース前の検証と新たな脆弱性に対する継続的な保護を確実にすることです。例えば、計画と範囲設定のフェーズでは、脅威モデリング演習を使用して、OWASP Top 10 LLM リスク（プロンプト インジェクション、データ漏洩、モデル汚染、過度の依存など）と AI Exchange の脅威を列挙し、テストの範囲と管理策を定義することができます。</t>
-    <rPh sb="127" eb="129">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>オセン</t>
-    </rPh>
-    <rPh sb="239" eb="242">
-      <t>カンリサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>例えば、検証と評価のフェーズでは、プロンプト インジェクションのテストで直接的および間接的なプロンプトの不正操作をテストしてガードレールの範囲と拒否動作を確認し、制御された再学習ループに悪意のあるサンプルを挿入して汚染防御が機能することを確認できます。開発と運用のフェーズでは、新しくインストールまたは更新されたプラグインを継続的にスキャンして OWASP で特定された脆弱性を探し、脱獄、バックドア プロンプト、または既知の OWASP AI Exchange 脅威ベクトルの悪用の兆候がないか出力を監視するようにテストを指示できます。</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ガクシュウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>オセン</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>ダツゴク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>本初期リリースでは、OWASP AI Testing の方法論は、最初の AI 製品バージョンのテスト準備が完了したら、AI 製品の所有者がテスト範囲を定義し、包括的な一連の評価を実行できるようにすることに重点を置いています。今後の更新では、このガイダンスが拡張され、より初期の試作段階もカバーされる予定です。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ホウホウロン</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -5761,12 +4784,1716 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>AI の信頼性の基盤としての AI テスト</t>
+    <rPh sb="4" eb="7">
+      <t>シンライセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1. はじめに</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人工知能（AI）は、革新的な技術から現代のデジタルインフラの重要な構成要素へと進化を遂げました。AI システムは現在、医療、金融、モビリティ、公共サービス、そしてエンタープライズ オートメーションといった分野において、重要な意思決定を支えています。これらのシステムの適用範囲と自律性が拡大するにつれ、組織は AI が意図したとおりに安全に動作することを検証するための、標準化された反復可能な方法を必要としています。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OWASP AI Testing Guide は、AI システムの信頼性テストのための実用的な標準を確立することで、このギャップを埋めます。この標準は、セキュリティ上の脅威だけでなく、規制に準拠した責任ある AI デプロイメントに求められる、より広範な信頼性特性を評価する、技術に依存しない統一的な手法を提供します。</t>
+    <rPh sb="99" eb="101">
+      <t>セキニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AI に対するテストは、もはやセキュリティのみに焦点を当てたものではなく、自律型および半自律型システムにおける信頼性の維持に重点を置いた、学際的な分野となっています。OWASP AI Testing Guide は、これまで欠けていた標準、すなわち、実際の攻撃パターン、新たなグローバル標準、そして AI セキュリティ コミュニティの実体験に基づいた、AI システムの信頼性テストのための統一的、実用的、かつ包括的なフレームワークを確立します。</t>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>従来のソフトウェア テストは、不正アクセス、コードの欠陥、システムの脆弱性からシステムを保護することに重点を置いています。AI システムでは、それ以上の対策が求められます。AI モデルは非決定論的な方法で学習、適応、一般化、そして失敗するため、従来のセキュリティ テストでは対処できないリスクが生じます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NIST AML Taxonimy と OWASP Top 10 for LLM Applications 2025 に記載されている証拠から、AI システムが失敗する理由はセキュリティをはるかに超えるものであることがわかります。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>こうした複雑さから、業界は「セキュリティだけでは不十分であり、AI の信頼性こそが真の目的である」という原則に収束しつつあります。この OWASP AI Testing Guide は、これらの原則を実用的なテスト フレームワークとして運用化しています。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AI モデルは、巧妙に作成された入力（敵対的サンプル）によって欺かれたり、操作されたりする可能性があるため、組織は標準的な機能テストをはるかに超える、専用の敵対的堅牢性テスト手法を採用する必要があります。こうした専門的なセキュリティ評価がなければ、AI システムは、整合性、信頼性、そして全体的な信頼性を損なう可能性のある、微妙な攻撃に対して脆弱なままです。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OWASP AI Testing Guide は、以下を提供します。</t>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このガイドは、ソフトウェア開発者、アーキテクト、データ アナリスト、研究者、監査人、リスク担当者のための包括的参照情報として設計されており、製品開発ライフサイクル全体を通じて AI リスクが体系的に対処されることを保証します。</t>
+    <rPh sb="55" eb="57">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このガイダンスに従うことで、チームは、潜在的なバイアス、脆弱性、パフォーマンスの低下が事前に特定され、軽減されているという検証可能な保証を得て、AI システムを自信を持って本番環境にデプロイするために必要なレベルの信頼を確立できます。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.1. 序文と寄稿者</t>
+    <rPh sb="5" eb="7">
+      <t>ジョブン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>序文</t>
+    <rPh sb="0" eb="2">
+      <t>ジョブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AI システムの信頼性テストのための標準 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バージョン 1.0 – 2025 年 11 月</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OWASP AI Testing Guide</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OWASP AI Testing Guide は、CC BY-SA 4.0 ライセンスに基づいて公開されています。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人工知能（AI）はソフトウェアの設計、デプロイ、そして防御の方法を変革していますが、AI システムのテスト、検証、そして保証の能力は、同じペースで進化していません。従来のアプリケーション セキュリティ テストは、学習、適応、そして予測不可能な動作をするモデルによって駆動されるシステムに対しては、もはや十分ではありません。</t>
+    <rPh sb="143" eb="144">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2023 年、OWASP は </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Top 10 for Large Language Model Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> を発表しました。これは、一般的な AI リスクをマッピングする初のグローバルな取り組みです。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">OWASP AI Testing Guide (AITG) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、次のステップとして、データ収集とモデルの学習から、デプロイ、監視、実行時動作に至るまで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AI システムのライフサイクル全体にわたって信頼性を評価するための、構造化され、反復可能で、コミュニティ主導の手法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を提供します。</t>
+    </r>
+    <rPh sb="158" eb="160">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="171" eb="174">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このガイドは、AI テスター、機械学習エンジニア、リスク管理者、監査担当者など、高レベルの AI ガバナンス原則を実用的かつテスト可能な管理策に落とし込む必要がある方々を対象としています。各テスト ケースは、目標、ペイロード、そして観察可能なレスポンスを修復ガイダンスにリンクさせ、一貫した評価とエビデンスに基づくレポート作成を可能にします。</t>
+    <rPh sb="28" eb="31">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バージョン 1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> では、OWASP AI Testing Framework を構成する以下の 4 つのテスト カテゴリが導入されています。</t>
+    </r>
+    <rPh sb="45" eb="47">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>各カテゴリは、以下の一貫したプロセスに従います。</t>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　目標の定義→テストの実施→応答の解釈→修復の推奨</t>
+    <rPh sb="1" eb="3">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウフク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　①AI アプリケーションのテスト – プロンプト、インターフェース、統合ロジックの検証。
+　②AI モデルのテスト – モデルの堅牢性、アライメント、敵対的耐性の調査。
+　③AI データのテスト – データの整合性、プライバシー、出所の評価。
+　④AI インフラストラクチャのテスト – パイプライン、オーケストレーション、実行時環境の評価。</t>
+    <rPh sb="163" eb="165">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>AI Testing Guide は、特定のツールを規定するのではなく、AI システムのレジリエンス（回復力）を測定するための方法論の標準、つまり共通言語を定義します。このフレームワークは、実世界におけるテスト、学術研究、そしてコミュニティからのフィードバックに基づき、継続的に進化するように設計されています。GitHub の Issue、プル リクエスト、そしてコミュニティの議論を通して、皆様の貢献をお待ちしております。共に、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AI を設計段階から信頼できるものにしていく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ために、ご協力をお願いします。</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Onward,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Matteo Meucci &amp; Marco Morana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OWASP AI Testing Guide プロジェクト共同リーダー</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロジェクトに関わったすべての人々に感謝します。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OWASP Foundation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Top 10 for LLM Applications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> と</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> GenAI Red Teaming Guide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> の貢献者、そして NIST AI RMF と AI 100-2e チームの皆様に、その基礎的な取り組みに感謝します。そして何よりも、AI システムのオープンな環境でのテスト、攻略、そして強化に時間を割いてくださっているOWASP コミュニティと実務者の皆様に感謝します。</t>
+    </r>
+    <rPh sb="158" eb="160">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Julio Araujo • Roei Arpaly • Isaac Bentley • Yoni Birman • Henriette Cramer • Luca Demetrio • DotDotSlash • Federico Dotta • Didier Durand • Almog Langleben • Grao Melo • Matteo Meucci • Marco Morana • Maura Pintor • Jeremy Redmond • Federico Ricciuti • Mart Jord Roca • Sita Ram Sai • Dhanith Krishna • Nicolas Humblot</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AI Testing Guide の著者および貢献者</t>
+    <rPh sb="18" eb="20">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>コウケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>• AI および LLM ベースのシステムの信頼性テストのための標準化された方法論
+• 以下のリスクを評価する反復可能なテスト ケース
+  - AI アプリケーション層
+  - AI モデル層
+  - AI インフラストラクチャ層
+  - AI データ層</t>
+    <rPh sb="55" eb="57">
+      <t>ハンプク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>• 敵対的操作（プロンプト インジェクション、脱獄、モデル回避）
+• バイアスと公平性の欠陥
+• 機密情報の漏洩
+• 幻覚と誤情報
+• サプライチェーン全体にわたるデータ／モデルの汚染
+• 過剰または安全でない主体性
+• ユーザーの意図または組織ポリシーとの不一致
+• 不透明または説明不能な出力
+• 時間の経過に伴うモデルのドリフトと劣化</t>
+    <rPh sb="23" eb="25">
+      <t>ダツゴク</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>シュタイセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>著者</t>
+    <rPh sb="0" eb="2">
+      <t>チョシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>貢献者</t>
+    <rPh sb="0" eb="2">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Jacob Beers • Giovanni Cerrato • Fabio Cerullo • Andrea Fukushima • Sebastien Gioria • Joey Melo • Kunal Sinha • Cecil Su • Melvin Tan</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>謝辞: このプロジェクトの実現にあたり、フィードバック、アイデア、そして励ましを共有してくださった OWASP AITG コミュニティの皆様、特に Slack チャンネルの皆様に感謝します。皆様のご意見は、このプロジェクトの発展に大きく貢献しました。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.2. OWASP AI Testing の原則</t>
+    <rPh sb="23" eb="25">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>信頼できる AI は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>責任ある AI (RespAI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セキュリティが確保された AI (SecAI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プライバシーに配慮した AI (PrivacyAI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> という 3 つの基盤領域の強みを組み合わせることで実現されます。これらの領域は、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OWASP AI Testing Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> における信頼できる AI のテスト可能な基盤を形成します。信頼できる AI のより広い定義には、ガバナンス、信頼性 (reliability)、説明責任性も含まれますが、これらの特性は、以下の 3 つの領域にわたる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>継続的なテスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を通じて実現され、運用されます。</t>
+    </r>
+    <rPh sb="35" eb="37">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハイリョ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>効果的な AI テストは、以下の側面を包括的に統合します。</t>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>セキュリティ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は、敵対的およびインフラストラクチャに対する脅威に対する耐性を確保します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プライバシー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">は、機密性を保護し、機密データの悪用や推測を防止します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>責任ある AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> は、倫理的で透明性があり、バイアス耐性のある行動を施行します。</t>
+    </r>
+    <rPh sb="118" eb="120">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>これらが組み合わさることで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信頼できる AI システム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（安全かつ予測可能で、人間の価値観に沿って動作するシステム）を検証、制御、維持するための統一された構造が形成されます。</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AI システムは、敵対的な脅威やシステム的な悪用に対して耐性を持ち、AI スタックとライフサイクル全体にわたって保護を確保する必要があります。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロンプトと入力の制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: システム プロンプト、指示、およびユーザー入力をインジェクションや不正操作から保護します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>敵対的堅牢性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 回避、汚染、モデル盗難、脱獄、間接プロンプト インジェクションに対する耐性をテストします。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インフラストラクチャ セキュリティ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: API エンドポイント、プラグイン、RAG パイプライン、およびエージェント ワークフローの脆弱性を評価します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サプライチェーン リスク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: モデルと依存関係に汚染、改ざん、またはサードパーティによる侵害がないか検査します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>継続的なテスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: CI/CD パイプラインに敵対的および依存関係の自動スキャンを統合します。</t>
+    </r>
+    <rPh sb="74" eb="76">
+      <t>オセン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ダツゴク</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>オセン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ漏洩の防止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 学習データ、プライベート コンテキスト、またはユーザー入力の意図しない漏洩を検出します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メンバーシップおよびプロパティ推論への耐性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: データが学習の一部であるかどうかを推論する攻撃に対する脆弱性を評価します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>モデルの抽出と持ち出し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 独自のモデルや重みを複製しようとする攻撃者をシミュレートします。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データ ガバナンスのコンプライアンス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: 最小化、目的の制限、および同意管理の原則の遵守を検証します。</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>モデルのライフサイクル全体を通じて、AI システムに公開されるデータや AI システムによって生成されるデータの機密性とユーザーのデータ管理権限を確保します。</t>
+    <rPh sb="68" eb="70">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3. 責任ある AI (RespAI)</t>
+    <rPh sb="3" eb="5">
+      <t>セキニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1. セキュリティが確保された AI (SecAI)</t>
+    <rPh sb="10" eb="12">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2. プライバシーに配慮した AI (PrivacyAI)</t>
+    <rPh sb="10" eb="12">
+      <t>ハイリョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>継続的な評価と軽減を通じて、倫理的かつ安全で整合性のあるシステム動作を促進します。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バイアスと公平性の監査</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 人口統計グループやエッジ ケース全体にわたって、差別的な出力を特定します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>有害性と不正使用の検出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 有害または誤解を招くコンテンツの作成または拡散に対する耐性をテストします。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>安全性の整合（アライメント）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 整合制約の遵守と、脱獄やロール プレイングによるエクスプロイトへの耐性を検証します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ガードレールの網羅性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 安全フィルター、拒否メカニズム、不正使用防止ロジックを評価します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>人間参加型（HITL）の管理策</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: 影響の大きい意思決定については、エスカレーションを確実に実施し、経路をレビューします。</t>
+    </r>
+    <rPh sb="176" eb="179">
+      <t>モウラセイ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4. 信頼できる AI システム</t>
+    <rPh sb="3" eb="5">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信頼できる AI (Trustworthy AI) = 責任ある AI (RespAI) + セキュリティが確保された AI (SecAI) + プライバシーに配慮した AI (PrivacyAI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> であり、長期にわたって信頼を維持するガバナンス、透明性、監視の機構によってサポートされます。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクホ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ハイリョ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>キコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>説明可能性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: ユーザーと監査者が意思決定の方法と理由を理解できることを確実にします。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一貫性と安定性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: プロンプトの変動と回帰テストにおいて、予測可能な応答を検証します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>継続的な監視</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 実行時の可観測性、ドリフト検出、自動異常アラートを適用します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ライフサイクル テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 設計からデプロイメント、そして市場投入後の段階まで検証を拡張します。
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポリシーと規制との整合（アライメント</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）: テストと検証のプロセスを、NIST AI RMF [1]、ISO/IEC 42001 [2]、OWASP Top 10 for LLM [3]などのフレームワークにマッピングします。</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクジツ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>セイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>効果的な AI テストは、信頼できる AI システムを構築するために、セキュリティ、プライバシー、責任ある AI という3つの主要な領域を基盤としています。私たちがこれら 3 つのコア領域を選んだのは、これらが AI リスクのあらゆる側面に総合的に対処できるからです。セキュリティは、敵対的脅威やインフラストラクチャの脅威に対する耐性を確保します。プライバシーは、意図しないデータ漏洩や推論攻撃を防ぎます。責任ある AI は、倫理的な行動と公平性を重視し、バイアスや悪用を防ぎます。これらが一体となって、安全で信頼性の高い AI デプロイメントを検証、管理、維持するための包括的なフレームワークを形成します。各領域には、最新の AI アプリケーションの評価を導く重要な原則が含まれています。</t>
+    <rPh sb="233" eb="235">
+      <t>アクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ISO/IEC 23053 [4]は、ML ベースの AI システムのライフサイクルを、それぞれ明確な目標、成果物、ガバナンスのタッチポイントを持つ一連の繰り返し可能なフェーズに構造化しています。</t>
+    <rPh sb="51" eb="53">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>計画と適用範囲の設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: このフェーズでは、明確なビジネス目標、成功指標、ML 使用事例を確立するとともに、主要なステークホルダー、規制要件、組織のリスク許容度を特定します。
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データの準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: このフェーズでは、生データ ソースを収集して文書化し、前処理パイプラインを通じてプロファイリングと品質チェックを実施し、データの完全な追跡可能性を確保するためにバージョン管理と系譜追跡を実装します。
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>モデルの開発と学習</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: このフェーズでは、適切なアルゴリズムとアーキテクチャを選択し、特徴量エンジニアリングを用いてキュレーションされたデータセットでモデルを学習させ、学習プロセスを制御するパラメータ（ハイパー パラメータなど）やパフォーマンス指標を含む実験をモデル レジストリに記録します。
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>検証と評価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: このフェーズでは、予約済みデータセットと敵対的データセットを使用してモデルをテストし、公平性、堅牢性、セキュリティの評価を実施し、機能、倫理、規制基準を満たしていることを確認します。
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>デプロイメントと統合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: このフェーズでは、学習済みの AI モデルを準備し、サービス（マイクロサービスまたは API でモデルをラップする）またはエッジ デプロイメント（IoT ゲートウェイやモバイル フォンなどのリソースが限られたデバイス向けにモデルを変換および最適化する）用のデプロイ可能なアーティファクトにバンドルします。CI/CD を介してビルド、テスト、リリースのワークフローを自動化し、インフラストラクチャのセキュリティ対策を検証します。
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>運用と保守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: このフェーズでは、AI 製品が本番環境にある間、パフォーマンス、データ ドリフト、監査ログを継続的に監視し、異常やコンプライアンス違反が発生した場合にアラートをトリガーします。同時に、定期的に最新データでモデルを再学習させ、セキュリティ、プライバシー、公平性に関する管理策を再検証し、必要に応じて文書化、学習、ポリシーを更新します。</t>
+    </r>
+    <rPh sb="6" eb="10">
+      <t>テキヨウハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ケイフ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="282" eb="284">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="476" eb="478">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="798" eb="800">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="824" eb="826">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="826" eb="827">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="841" eb="842">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="843" eb="845">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="851" eb="853">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AI システムが開始から継続的な運用に至るまで、正確性、安全性、公平性、信頼性を維持できるように、AI テストを AI システムのライフサイクル全体に統合する必要があります。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>このガイドのテスト目標の 1 つは、OWASP の LLM 固有のテスト ケースと、より広範な OWASP AI Exchange [5]の脅威をライフサイクル フェーズに統合し、リリース前の検証と新たな脆弱性に対する継続的な保護を確実にすることです。例えば、計画および適用範囲の設定のフェーズでは、脅威モデリング演習を使用して、OWASP Top 10 LLM リスク（プロンプト インジェクション、データ漏洩、モデル汚染、過度の依存など）と AI Exchange の脅威を列挙し、テストの範囲とコントロールを定義することができます。</t>
+    <rPh sb="135" eb="139">
+      <t>テキヨウハンイ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>オセン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>例えば、検証と評価のフェーズでは、プロンプト インジェクションのテストで直接的および間接的なプロンプト操作をテストしてガードレールの網羅性と拒否動作を確認し、制御された再学習ループに悪意のあるサンプルを挿入して汚染への管理策が機能することを確認できます。開発および運用中は、新しくインストールまたは更新されたプラグインを継続的にスキャンして OWASP で特定された脆弱性を探し、脱獄、バックドア プロンプト、または既知の OWASP AI Exchange 脅威ベクトルの悪用の兆候がないか出力を監視するようにテストを指示できます。</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>モウラセイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>オセン</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ダツゴク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>この最初のリリースでは、OWASP AI Testing Methodology は、AI 製品所有者がテスト範囲を定義し、最初の AI 製品バージョンがテスト準備が整ったら包括的な評価スイートを実行するためのガイダンスに重点を置いています。将来のアップデートでは、このガイダンスが拡張され、より初期の製造前段階もカバーされる予定です。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>計画と適用範囲の設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">:ビジネス目標、成功指標、機械学習の使用事例がテスト可能かつ追跡可能であることを確認します。AI 固有のリスク（敵対的リスク、プライバシー リスク、コンプライアンス リスク）を特定し、それらを管理策にマッピングします。ステークホルダーの役割、規制上の制約、リスク許容基準が文書化されていることを検証します。
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データの準備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: データ品質テストを実施し、欠損値、外れ値、スキーマの不一致、重複がないか確認します。特徴量分布（特定の変数の値がどのように分布または配置されているか）を過去のプロファイルと比較検証し、ドリフトしきい値（このベースラインからのデータ ドリフト）を設定します。すべてのデータソース、変換、バージョンが記録され、追跡可能であることを確認します。
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>モデルの開発と学習</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: 前処理コード、カスタム レイヤー、および特徴量エンジニアリング関数が期待どおりに動作することを検証します。モデル コードに対して静的コード スキャン（SAST など）を実行し、セキュアでない依存関係や構成ミスがないか確認します。学習、検証、テストの分割間でデータ漏洩がないことを確認します。チューニングの変更によって、回帰なしに汎化が向上することを確認します。。
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>検証と評価</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: ホールド アウト テスト セットと敵対的テスト セットにおいて、正解率、適合率／再現率、AUC などを測定するベンチマークに対するパフォーマンス検証を実施します。公平性とバイアスの監査を実施し、人口統計スライスとエッジ ケース全体にわたってモデル出力を評価します。ニューラル ネットワークやその他の敵対的攻撃に対する敵対的サンプルを作成するための既知の手法を適用することで、敵対的堅牢性テストを実施し、耐性を評価します。プライバシー攻撃を実施し、メンバーシップ推論、モデル抽出、汚染をシミュレートすることで、プライバシー保護を確認します。予測結果を入力特徴に帰属させることで、モデルの決定が解釈可能かつ妥当であることを検証します。
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>運用と保守</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: ドリフト検出のための回帰テストを実施し、本番環境の入出力を検証ベースラインと継続的に比較します。パフォーマンスの低下、データ ドリフト、またはセキュリティ異常が発生した場合に、監視ルールが正しく実行されることを確認します。モデルの更新またはデータ更新後には、パフォーマンス、公平性、堅牢性を再評価します。セキュリティ、プライバシー、倫理に関する管理策が引き続き有効であり、文書化されていることを定期的に確認します。</t>
+    </r>
+    <rPh sb="6" eb="10">
+      <t>テキヨウハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="358" eb="360">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="409" eb="411">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="476" eb="478">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="586" eb="589">
+      <t>セイカイリツ</t>
+    </rPh>
+    <rPh sb="793" eb="795">
+      <t>オセン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5886,8 +6613,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5921,6 +6663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6093,7 +6841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6226,115 +6974,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6367,44 +7007,164 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6878,10 +7638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5CFD96-30DD-45AF-9BA2-D7B7D69CB9EA}">
-  <dimension ref="B1:C83"/>
+  <dimension ref="B1:C125"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6893,266 +7653,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="14" customFormat="1" ht="24.6" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="13"/>
+      <c r="B1" s="106" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="107"/>
     </row>
     <row r="3" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="90" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C7" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C9" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="C11" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C13" s="16" t="s">
-        <v>273</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C15" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="10" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="19" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="C17" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C19" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="10" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="29"/>
-    </row>
-    <row r="23" spans="2:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="C23" s="16" t="s">
-        <v>278</v>
-      </c>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C21" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="10" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="29"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C25" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="90" x14ac:dyDescent="0.2">
       <c r="C27" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C29" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C31" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="16" t="s">
-        <v>316</v>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="10" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
+      <c r="B33" s="104" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" s="105"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="16" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C39" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" s="101" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B41" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="102"/>
+    </row>
+    <row r="43" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C43" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C45" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C47" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="16" t="s">
-        <v>322</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C49" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="23" t="s">
-        <v>283</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="2:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="C51" s="16" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C53" s="16" t="s">
-        <v>323</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C55" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="C57" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="C58" s="16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.2">
-      <c r="B60" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="C62" s="16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="C64" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" ht="30" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="23"/>
+    </row>
+    <row r="59" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C59" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C61" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B63" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C65" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="C66" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="C67" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="C68" s="16" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="C69" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="C71" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="23"/>
+      <c r="C67" s="103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C68" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="103" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C71" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C73" s="16" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="C74" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="75" spans="3:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="C75" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="C76" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" s="10" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
+      <c r="B75" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="105"/>
+    </row>
+    <row r="76" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.2">
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="C77" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="79" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C79" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C81" s="16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C83" s="16" t="s">
-        <v>345</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B85" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="C89" s="16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B91" s="42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C93" s="16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="C95" s="16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B97" s="42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="C101" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B103" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C105" s="16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="90" x14ac:dyDescent="0.2">
+      <c r="C107" s="16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="C109" s="16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="B111" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C113" s="16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" ht="210" x14ac:dyDescent="0.2">
+      <c r="C115" s="16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C117" s="16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="C119" s="16" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="C121" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="C123" s="16" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="C125" s="16" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7179,147 +8011,147 @@
   <sheetData>
     <row r="1" spans="2:3" s="10" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="3" spans="2:3" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B3" s="42" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="C3" s="43"/>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C5" s="16" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C7" s="16" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B9" s="42" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="C9" s="43"/>
     </row>
     <row r="11" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C11" s="16" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C13" s="16" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C15" s="16" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C16" s="16" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="16" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C18" s="16" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" s="16" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B21" s="42" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="C21" s="43"/>
     </row>
     <row r="23" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C23" s="16" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" s="16" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C28" s="16" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" s="16" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C30" s="16" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" s="16" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C34" s="16" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C35" s="16" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C36" s="16" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="C37" s="16" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" x14ac:dyDescent="0.2">
       <c r="C38" s="16" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="2:3" s="42" customFormat="1" ht="16.2" x14ac:dyDescent="0.2">
       <c r="B40" s="42" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="C40" s="43"/>
     </row>
     <row r="42" spans="2:3" ht="90" x14ac:dyDescent="0.2">
       <c r="C42" s="16" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="90" x14ac:dyDescent="0.2">
       <c r="C44" s="16" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="409.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -7337,7 +8169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7345,7 +8179,7 @@
     <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="128.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="102.6640625" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -7358,8 +8192,8 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="15"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -7369,8 +8203,8 @@
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
@@ -7379,10 +8213,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="G3" s="16" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.2">
@@ -7401,10 +8235,10 @@
         <v>175</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>459</v>
+        <v>410</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>208</v>
@@ -7413,7 +8247,7 @@
         <v>209</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
@@ -7423,44 +8257,44 @@
       <c r="C7" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85" t="s">
-        <v>461</v>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="78" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="s">
-        <v>461</v>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -7469,56 +8303,56 @@
         <v>8</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85" t="s">
-        <v>461</v>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85" t="s">
-        <v>461</v>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85" t="s">
-        <v>461</v>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>12</v>
@@ -7527,94 +8361,94 @@
         <v>13</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="78" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="85" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85" t="s">
-        <v>461</v>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85" t="s">
-        <v>461</v>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>469</v>
+        <v>420</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85" t="s">
-        <v>461</v>
+        <v>303</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85" t="s">
-        <v>461</v>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>17</v>
@@ -7623,38 +8457,38 @@
         <v>18</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85" t="s">
-        <v>461</v>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85" t="s">
-        <v>461</v>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -7663,18 +8497,18 @@
         <v>23</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="80" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85" t="s">
-        <v>461</v>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>25</v>
@@ -7683,16 +8517,16 @@
         <v>26</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85" t="s">
-        <v>461</v>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>27</v>
@@ -7701,16 +8535,16 @@
         <v>28</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85" t="s">
-        <v>461</v>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>29</v>
@@ -7719,16 +8553,16 @@
         <v>30</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85" t="s">
-        <v>461</v>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>31</v>
@@ -7737,176 +8571,176 @@
         <v>32</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85" t="s">
-        <v>461</v>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85" t="s">
-        <v>461</v>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="165" x14ac:dyDescent="0.2">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85" t="s">
-        <v>461</v>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85" t="s">
-        <v>461</v>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85" t="s">
-        <v>461</v>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>210</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="78" t="s">
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85" t="s">
-        <v>461</v>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85" t="s">
-        <v>461</v>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85" t="s">
-        <v>461</v>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="80" t="s">
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85" t="s">
-        <v>461</v>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>44</v>
@@ -7915,16 +8749,16 @@
         <v>45</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85" t="s">
-        <v>461</v>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>46</v>
@@ -7933,16 +8767,16 @@
         <v>47</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85" t="s">
-        <v>461</v>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>48</v>
@@ -7951,16 +8785,16 @@
         <v>49</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85" t="s">
-        <v>461</v>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>50</v>
@@ -7969,16 +8803,16 @@
         <v>51</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85" t="s">
-        <v>461</v>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>52</v>
@@ -7987,16 +8821,16 @@
         <v>53</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85" t="s">
-        <v>461</v>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>54</v>
@@ -8005,18 +8839,18 @@
         <v>55</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="80" t="s">
+      <c r="B38" s="91"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="85" t="s">
-        <v>461</v>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>57</v>
@@ -8025,16 +8859,16 @@
         <v>58</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="76"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="85" t="s">
-        <v>461</v>
+      <c r="B39" s="93"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>59</v>
@@ -8043,7 +8877,7 @@
         <v>60</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -8053,84 +8887,84 @@
       <c r="C40" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="68" t="s">
-        <v>486</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" s="92" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B41" s="94"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="93" t="s">
-        <v>485</v>
-      </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="100" t="s">
-        <v>461</v>
-      </c>
-      <c r="G41" s="101" t="s">
-        <v>495</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>496</v>
-      </c>
-      <c r="I41" s="102" t="s">
-        <v>497</v>
+      <c r="D40" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="2:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>447</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="100" t="s">
-        <v>461</v>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="I42" s="103" t="s">
-        <v>489</v>
+        <v>438</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="84"/>
-      <c r="F43" s="100" t="s">
-        <v>461</v>
+      <c r="E43" s="48"/>
+      <c r="F43" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B44" s="96"/>
-      <c r="C44" s="97"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="100" t="s">
-        <v>461</v>
+      <c r="E44" s="48"/>
+      <c r="F44" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>65</v>
@@ -8139,18 +8973,18 @@
         <v>66</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="84"/>
-      <c r="F45" s="100" t="s">
-        <v>461</v>
+      <c r="E45" s="48"/>
+      <c r="F45" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>68</v>
@@ -8159,67 +8993,67 @@
         <v>69</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="100" t="s">
-        <v>461</v>
+      <c r="E46" s="48"/>
+      <c r="F46" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>210</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="165" x14ac:dyDescent="0.2">
-      <c r="B47" s="96"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="E47" s="86"/>
-      <c r="F47" s="100" t="s">
-        <v>461</v>
+        <v>445</v>
+      </c>
+      <c r="E47" s="50"/>
+      <c r="F47" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>71</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="285" x14ac:dyDescent="0.2">
-      <c r="B48" s="98"/>
-      <c r="C48" s="99"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
       <c r="D48" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="E48" s="86"/>
-      <c r="F48" s="100" t="s">
-        <v>461</v>
+        <v>453</v>
+      </c>
+      <c r="E48" s="50"/>
+      <c r="F48" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.2">
@@ -8229,24 +9063,24 @@
       <c r="C49" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88" t="s">
-        <v>461</v>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G50" s="39" t="s">
         <v>75</v>
@@ -8257,14 +9091,14 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="74"/>
-      <c r="C51" s="75"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="88" t="s">
-        <v>461</v>
+      <c r="E51" s="48"/>
+      <c r="F51" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>78</v>
@@ -8275,14 +9109,14 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="88" t="s">
-        <v>461</v>
+      <c r="E52" s="48"/>
+      <c r="F52" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>81</v>
@@ -8293,14 +9127,14 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="74"/>
-      <c r="C53" s="75"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="84"/>
-      <c r="F53" s="88" t="s">
-        <v>461</v>
+      <c r="E53" s="48"/>
+      <c r="F53" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>84</v>
@@ -8311,14 +9145,14 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="74"/>
-      <c r="C54" s="75"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="84"/>
-      <c r="F54" s="88" t="s">
-        <v>461</v>
+      <c r="E54" s="48"/>
+      <c r="F54" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>87</v>
@@ -8329,14 +9163,14 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="74"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="80" t="s">
+      <c r="B55" s="91"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="88" t="s">
-        <v>461</v>
+      <c r="E55" s="48"/>
+      <c r="F55" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>90</v>
@@ -8347,12 +9181,12 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="74"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="88" t="s">
-        <v>461</v>
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>92</v>
@@ -8363,14 +9197,14 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="74"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="80" t="s">
+      <c r="B57" s="91"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="84"/>
-      <c r="F57" s="88" t="s">
-        <v>461</v>
+      <c r="E57" s="48"/>
+      <c r="F57" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>95</v>
@@ -8381,12 +9215,12 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="88" t="s">
-        <v>461</v>
+      <c r="B58" s="91"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>97</v>
@@ -8397,14 +9231,14 @@
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="86"/>
-      <c r="F59" s="88" t="s">
-        <v>461</v>
+      <c r="E59" s="50"/>
+      <c r="F59" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>100</v>
@@ -8421,24 +9255,24 @@
       <c r="C60" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D60" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="72"/>
-      <c r="C61" s="73"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88" t="s">
-        <v>461</v>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>108</v>
@@ -8449,14 +9283,14 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="85"/>
-      <c r="F62" s="88" t="s">
-        <v>461</v>
+      <c r="E62" s="49"/>
+      <c r="F62" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>109</v>
@@ -8467,14 +9301,14 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B63" s="74"/>
-      <c r="C63" s="75"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="85"/>
-      <c r="F63" s="88" t="s">
-        <v>461</v>
+      <c r="E63" s="49"/>
+      <c r="F63" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>114</v>
@@ -8485,14 +9319,14 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="88" t="s">
-        <v>461</v>
+      <c r="E64" s="49"/>
+      <c r="F64" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>113</v>
@@ -8503,20 +9337,20 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="2:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="B65" s="76"/>
-      <c r="C65" s="77"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="89"/>
-      <c r="F65" s="88" t="s">
-        <v>461</v>
+      <c r="E65" s="53"/>
+      <c r="F65" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>112</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="I65" s="6"/>
     </row>
@@ -8527,24 +9361,24 @@
       <c r="C66" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
     </row>
     <row r="67" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88" t="s">
-        <v>461</v>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>214</v>
@@ -8555,14 +9389,14 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="85"/>
-      <c r="F68" s="88" t="s">
-        <v>461</v>
+      <c r="E68" s="49"/>
+      <c r="F68" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>217</v>
@@ -8573,14 +9407,14 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="88" t="s">
-        <v>461</v>
+      <c r="E69" s="49"/>
+      <c r="F69" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>220</v>
@@ -8591,14 +9425,14 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="56" t="s">
+      <c r="B70" s="68"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85" t="s">
-        <v>461</v>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>223</v>
@@ -8609,12 +9443,12 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="52"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85" t="s">
-        <v>461</v>
+      <c r="B71" s="68"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>258</v>
@@ -8625,12 +9459,12 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B72" s="52"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85" t="s">
-        <v>461</v>
+      <c r="B72" s="68"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>224</v>
@@ -8641,12 +9475,12 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="52"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85" t="s">
-        <v>461</v>
+      <c r="B73" s="68"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>225</v>
@@ -8657,12 +9491,12 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B74" s="52"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85" t="s">
-        <v>461</v>
+      <c r="B74" s="68"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>228</v>
@@ -8673,14 +9507,14 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85" t="s">
-        <v>461</v>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>231</v>
@@ -8691,14 +9525,14 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="69"/>
       <c r="D76" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85" t="s">
-        <v>461</v>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>235</v>
@@ -8709,14 +9543,14 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="56" t="s">
+      <c r="B77" s="68"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85" t="s">
-        <v>461</v>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>237</v>
@@ -8727,12 +9561,12 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85" t="s">
-        <v>461</v>
+      <c r="B78" s="68"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>238</v>
@@ -8743,12 +9577,12 @@
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85" t="s">
-        <v>461</v>
+      <c r="B79" s="72"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49" t="s">
+        <v>412</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>239</v>
@@ -8765,117 +9599,117 @@
       <c r="C80" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="81"/>
+      <c r="I80" s="81"/>
     </row>
     <row r="81" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="44"/>
-      <c r="C81" s="45"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="84"/>
       <c r="D81" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="85"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="49"/>
+      <c r="F82" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="49"/>
+      <c r="F83" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="85"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E84" s="49"/>
+      <c r="F84" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G84" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="E81" s="85"/>
-      <c r="F81" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="H81" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="46"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="27" t="s">
+      <c r="H84" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="85"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="49"/>
+      <c r="F85" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G85" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H82" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="27" t="s">
+      <c r="H85" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="85"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" s="49"/>
+      <c r="F86" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="E83" s="85"/>
-      <c r="F83" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="H83" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="46"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" s="85"/>
-      <c r="F84" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="H84" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="E85" s="85"/>
-      <c r="F85" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="H85" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="88" t="s">
-        <v>461</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>301</v>
       </c>
       <c r="H86" s="26" t="s">
         <v>210</v>
@@ -8883,68 +9717,68 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="56" t="s">
+      <c r="B87" s="85"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B88" s="85"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B89" s="85"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="G87" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="H87" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B88" s="46"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B89" s="46"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B90" s="48"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="I90" s="6"/>
     </row>
@@ -8955,24 +9789,24 @@
       <c r="C91" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="D91" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="71"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="79"/>
     </row>
     <row r="92" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E92" s="85"/>
-      <c r="F92" s="88" t="s">
-        <v>461</v>
+      <c r="E92" s="49"/>
+      <c r="F92" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>244</v>
@@ -8983,14 +9817,14 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="52"/>
-      <c r="C93" s="53"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="69"/>
       <c r="D93" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="85"/>
-      <c r="F93" s="88" t="s">
-        <v>461</v>
+      <c r="E93" s="49"/>
+      <c r="F93" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>246</v>
@@ -9001,14 +9835,14 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="52"/>
-      <c r="C94" s="53"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="69"/>
       <c r="D94" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="85"/>
-      <c r="F94" s="88" t="s">
-        <v>461</v>
+      <c r="E94" s="49"/>
+      <c r="F94" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>247</v>
@@ -9019,14 +9853,14 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="52"/>
-      <c r="C95" s="53"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="85"/>
-      <c r="F95" s="88" t="s">
-        <v>461</v>
+      <c r="E95" s="49"/>
+      <c r="F95" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>249</v>
@@ -9037,14 +9871,14 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="52"/>
-      <c r="C96" s="53"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="69"/>
       <c r="D96" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E96" s="85"/>
-      <c r="F96" s="88" t="s">
-        <v>461</v>
+      <c r="E96" s="49"/>
+      <c r="F96" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>251</v>
@@ -9055,14 +9889,14 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="52"/>
-      <c r="C97" s="53"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="69"/>
       <c r="D97" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E97" s="85"/>
-      <c r="F97" s="88" t="s">
-        <v>461</v>
+      <c r="E97" s="49"/>
+      <c r="F97" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>254</v>
@@ -9073,14 +9907,14 @@
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="2:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="54"/>
-      <c r="C98" s="55"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="73"/>
       <c r="D98" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E98" s="85"/>
-      <c r="F98" s="88" t="s">
-        <v>461</v>
+      <c r="E98" s="49"/>
+      <c r="F98" s="52" t="s">
+        <v>412</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>255</v>
@@ -9097,25 +9931,25 @@
       <c r="C99" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="69" t="s">
+      <c r="D99" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="71"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="79"/>
     </row>
     <row r="100" spans="2:9" ht="105" x14ac:dyDescent="0.2">
-      <c r="B100" s="59"/>
-      <c r="C100" s="60"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="71"/>
       <c r="D100" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
       <c r="G100" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>210</v>
@@ -9129,25 +9963,25 @@
       <c r="C101" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="69" t="s">
+      <c r="D101" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="71"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="79"/>
     </row>
     <row r="102" spans="2:9" ht="90" x14ac:dyDescent="0.2">
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="67"/>
       <c r="D102" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
+        <v>301</v>
+      </c>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
       <c r="G102" s="7" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>210</v>
@@ -9155,15 +9989,15 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="2:9" ht="150" x14ac:dyDescent="0.2">
-      <c r="B103" s="52"/>
-      <c r="C103" s="53"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="69"/>
       <c r="D103" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
+        <v>300</v>
+      </c>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="7" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>210</v>
@@ -9177,70 +10011,70 @@
       <c r="C104" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D104" s="69" t="s">
+      <c r="D104" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="71"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="79"/>
     </row>
     <row r="105" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B105" s="50"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="E105" s="89"/>
-      <c r="F105" s="89"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B106" s="52"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="90"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
       <c r="G106" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B107" s="52"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="90"/>
-      <c r="F107" s="90"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
       <c r="G107" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B108" s="54"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
       <c r="G108" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="I108" s="6"/>
     </row>
@@ -9251,70 +10085,70 @@
       <c r="C109" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D109" s="69" t="s">
+      <c r="D109" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="70"/>
-      <c r="H109" s="70"/>
-      <c r="I109" s="71"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="79"/>
     </row>
     <row r="110" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B110" s="50"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B111" s="52"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
       <c r="G111" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B112" s="52"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="90"/>
-      <c r="F112" s="90"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
       <c r="G112" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B113" s="54"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="88"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
       <c r="G113" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="I113" s="6"/>
     </row>
@@ -9325,70 +10159,70 @@
       <c r="C114" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D114" s="69" t="s">
+      <c r="D114" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="79"/>
+    </row>
+    <row r="115" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B115" s="66"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="2:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="B116" s="68"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="75"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="H114" s="70"/>
-      <c r="I114" s="71"/>
-    </row>
-    <row r="115" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B115" s="50"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="56" t="s">
-        <v>359</v>
-      </c>
-      <c r="E115" s="89"/>
-      <c r="F115" s="89"/>
-      <c r="G115" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B116" s="52"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="90"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="H116" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B117" s="52"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="90"/>
-      <c r="F117" s="90"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="75"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="54"/>
       <c r="G117" s="7" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B118" s="54"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="88"/>
-      <c r="F118" s="88"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
       <c r="G118" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -9399,70 +10233,70 @@
       <c r="C119" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D119" s="69" t="s">
+      <c r="D119" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
-      <c r="H119" s="70"/>
-      <c r="I119" s="71"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="78"/>
+      <c r="H119" s="78"/>
+      <c r="I119" s="79"/>
     </row>
     <row r="120" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
       <c r="G120" s="7" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="52"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="90"/>
-      <c r="F121" s="90"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="54"/>
       <c r="G121" s="7" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="52"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="90"/>
-      <c r="F122" s="90"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="75"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54"/>
       <c r="G122" s="7" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B123" s="54"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="58"/>
-      <c r="E123" s="88"/>
-      <c r="F123" s="88"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
       <c r="G123" s="7" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
       <c r="I123" s="6"/>
     </row>
@@ -9473,70 +10307,70 @@
       <c r="C124" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D124" s="69" t="s">
+      <c r="D124" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="71"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="79"/>
     </row>
     <row r="125" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
-      <c r="D125" s="56" t="s">
-        <v>449</v>
-      </c>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
       <c r="G125" s="7" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B126" s="52"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="90"/>
-      <c r="F126" s="90"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="75"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
       <c r="G126" s="7" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B127" s="52"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="90"/>
-      <c r="F127" s="90"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="69"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="54"/>
       <c r="G127" s="7" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B128" s="54"/>
-      <c r="C128" s="55"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="88"/>
-      <c r="F128" s="88"/>
+      <c r="B128" s="72"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="52"/>
       <c r="G128" s="7" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="I128" s="6"/>
     </row>
@@ -9564,7 +10398,7 @@
         <v>209</v>
       </c>
       <c r="I132" s="31" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
@@ -9574,25 +10408,25 @@
       <c r="C133" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D133" s="69" t="s">
+      <c r="D133" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E133" s="70"/>
-      <c r="F133" s="70"/>
-      <c r="G133" s="70"/>
-      <c r="H133" s="70"/>
-      <c r="I133" s="71"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="78"/>
+      <c r="H133" s="78"/>
+      <c r="I133" s="79"/>
     </row>
     <row r="134" spans="1:9" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.2">
-      <c r="B134" s="59"/>
-      <c r="C134" s="60"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E134" s="85"/>
-      <c r="F134" s="85"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
       <c r="G134" s="26" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="H134" s="26" t="s">
         <v>211</v>
@@ -9606,25 +10440,25 @@
       <c r="C135" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D135" s="69" t="s">
+      <c r="D135" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="E135" s="70"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="70"/>
-      <c r="H135" s="70"/>
-      <c r="I135" s="71"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
+      <c r="H135" s="78"/>
+      <c r="I135" s="79"/>
     </row>
     <row r="136" spans="1:9" s="18" customFormat="1" ht="135" x14ac:dyDescent="0.2">
-      <c r="B136" s="59"/>
-      <c r="C136" s="60"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="71"/>
       <c r="D136" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="49"/>
       <c r="G136" s="26" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="H136" s="26" t="s">
         <v>211</v>
@@ -9638,57 +10472,57 @@
       <c r="C137" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D137" s="69" t="s">
+      <c r="D137" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="E137" s="70"/>
-      <c r="F137" s="70"/>
-      <c r="G137" s="70"/>
-      <c r="H137" s="70"/>
-      <c r="I137" s="71"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
+      <c r="H137" s="78"/>
+      <c r="I137" s="79"/>
     </row>
     <row r="138" spans="1:9" s="18" customFormat="1" ht="135" x14ac:dyDescent="0.2">
-      <c r="B138" s="59"/>
-      <c r="C138" s="60"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
+        <v>305</v>
+      </c>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
       <c r="G138" s="26" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="H138" s="26" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B139" s="9" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D139" s="69" t="s">
+      <c r="D139" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="E139" s="70"/>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="70"/>
-      <c r="I139" s="71"/>
+      <c r="E139" s="78"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="78"/>
+      <c r="H139" s="78"/>
+      <c r="I139" s="79"/>
     </row>
     <row r="140" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.2">
-      <c r="B140" s="59"/>
-      <c r="C140" s="60"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="71"/>
       <c r="D140" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="49"/>
       <c r="G140" s="26" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="H140" s="26" t="s">
         <v>210</v>
@@ -9702,25 +10536,25 @@
       <c r="C141" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D141" s="69" t="s">
+      <c r="D141" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="71"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
+      <c r="H141" s="78"/>
+      <c r="I141" s="79"/>
     </row>
     <row r="142" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B142" s="61"/>
-      <c r="C142" s="62"/>
-      <c r="D142" s="56" t="s">
+      <c r="B142" s="95"/>
+      <c r="C142" s="96"/>
+      <c r="D142" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="E142" s="89"/>
-      <c r="F142" s="89"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53"/>
       <c r="G142" s="26" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="H142" s="26" t="s">
         <v>210</v>
@@ -9728,13 +10562,13 @@
       <c r="I142" s="7"/>
     </row>
     <row r="143" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B143" s="63"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="90"/>
-      <c r="F143" s="90"/>
+      <c r="B143" s="97"/>
+      <c r="C143" s="98"/>
+      <c r="D143" s="75"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="54"/>
       <c r="G143" s="26" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="H143" s="26" t="s">
         <v>210</v>
@@ -9742,13 +10576,13 @@
       <c r="I143" s="7"/>
     </row>
     <row r="144" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B144" s="63"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="90"/>
-      <c r="F144" s="90"/>
+      <c r="B144" s="97"/>
+      <c r="C144" s="98"/>
+      <c r="D144" s="75"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="54"/>
       <c r="G144" s="26" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="H144" s="26" t="s">
         <v>210</v>
@@ -9756,13 +10590,13 @@
       <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:9" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="B145" s="65"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="88"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="100"/>
+      <c r="D145" s="76"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
       <c r="G145" s="26" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="H145" s="26" t="s">
         <v>210</v>
@@ -9776,14 +10610,14 @@
       <c r="C146" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D146" s="69" t="s">
+      <c r="D146" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="E146" s="70"/>
-      <c r="F146" s="70"/>
-      <c r="G146" s="70"/>
-      <c r="H146" s="70"/>
-      <c r="I146" s="71"/>
+      <c r="E146" s="78"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
+      <c r="H146" s="78"/>
+      <c r="I146" s="79"/>
     </row>
     <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B147" s="9" t="s">
@@ -9792,14 +10626,14 @@
       <c r="C147" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D147" s="69" t="s">
+      <c r="D147" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="71"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="78"/>
+      <c r="H147" s="78"/>
+      <c r="I147" s="79"/>
     </row>
     <row r="149" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
@@ -9825,7 +10659,7 @@
         <v>209</v>
       </c>
       <c r="I151" s="31" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
@@ -9835,25 +10669,25 @@
       <c r="C152" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D152" s="69" t="s">
+      <c r="D152" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="E152" s="70"/>
-      <c r="F152" s="70"/>
-      <c r="G152" s="70"/>
-      <c r="H152" s="70"/>
-      <c r="I152" s="71"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="78"/>
+      <c r="H152" s="78"/>
+      <c r="I152" s="79"/>
     </row>
     <row r="153" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B153" s="44"/>
-      <c r="C153" s="45"/>
+      <c r="B153" s="83"/>
+      <c r="C153" s="84"/>
       <c r="D153" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="E153" s="85"/>
-      <c r="F153" s="85"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="49"/>
       <c r="G153" s="26" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="H153" s="26" t="s">
         <v>210</v>
@@ -9861,15 +10695,15 @@
       <c r="I153" s="7"/>
     </row>
     <row r="154" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B154" s="46"/>
-      <c r="C154" s="47"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="86"/>
       <c r="D154" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="26" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="H154" s="26" t="s">
         <v>210</v>
@@ -9877,15 +10711,15 @@
       <c r="I154" s="7"/>
     </row>
     <row r="155" spans="1:9" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="B155" s="48"/>
-      <c r="C155" s="49"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="88"/>
       <c r="D155" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E155" s="85"/>
-      <c r="F155" s="85"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="49"/>
       <c r="G155" s="26" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="H155" s="26" t="s">
         <v>210</v>
@@ -9899,23 +10733,23 @@
       <c r="C156" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D156" s="69" t="s">
+      <c r="D156" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="E156" s="70"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="70"/>
-      <c r="H156" s="70"/>
-      <c r="I156" s="71"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="78"/>
+      <c r="H156" s="78"/>
+      <c r="I156" s="79"/>
     </row>
     <row r="157" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B157" s="44"/>
-      <c r="C157" s="45"/>
-      <c r="D157" s="56" t="s">
+      <c r="B157" s="83"/>
+      <c r="C157" s="84"/>
+      <c r="D157" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E157" s="89"/>
-      <c r="F157" s="89"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
       <c r="G157" s="26" t="s">
         <v>188</v>
       </c>
@@ -9925,11 +10759,11 @@
       <c r="I157" s="7"/>
     </row>
     <row r="158" spans="1:9" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="46"/>
-      <c r="C158" s="47"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="88"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
       <c r="G158" s="26" t="s">
         <v>190</v>
       </c>
@@ -9939,13 +10773,13 @@
       <c r="I158" s="7"/>
     </row>
     <row r="159" spans="1:9" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="46"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="56" t="s">
+      <c r="B159" s="85"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E159" s="89"/>
-      <c r="F159" s="89"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="53"/>
       <c r="G159" s="26" t="s">
         <v>195</v>
       </c>
@@ -9955,11 +10789,11 @@
       <c r="I159" s="7"/>
     </row>
     <row r="160" spans="1:9" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="46"/>
-      <c r="C160" s="47"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="88"/>
-      <c r="F160" s="88"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="52"/>
       <c r="G160" s="26" t="s">
         <v>194</v>
       </c>
@@ -9969,13 +10803,13 @@
       <c r="I160" s="7"/>
     </row>
     <row r="161" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B161" s="46"/>
-      <c r="C161" s="47"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="86"/>
       <c r="D161" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="49"/>
       <c r="G161" s="26" t="s">
         <v>198</v>
       </c>
@@ -9985,13 +10819,13 @@
       <c r="I161" s="7"/>
     </row>
     <row r="162" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B162" s="46"/>
-      <c r="C162" s="47"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="86"/>
       <c r="D162" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E162" s="85"/>
-      <c r="F162" s="85"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
       <c r="G162" s="26" t="s">
         <v>200</v>
       </c>
@@ -10001,13 +10835,13 @@
       <c r="I162" s="7"/>
     </row>
     <row r="163" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B163" s="48"/>
-      <c r="C163" s="49"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="88"/>
       <c r="D163" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="E163" s="85"/>
-      <c r="F163" s="85"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="49"/>
       <c r="G163" s="26" t="s">
         <v>202</v>
       </c>
@@ -10023,14 +10857,14 @@
       <c r="C164" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D164" s="69" t="s">
+      <c r="D164" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="E164" s="70"/>
-      <c r="F164" s="70"/>
-      <c r="G164" s="70"/>
-      <c r="H164" s="70"/>
-      <c r="I164" s="71"/>
+      <c r="E164" s="78"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="78"/>
+      <c r="H164" s="78"/>
+      <c r="I164" s="79"/>
     </row>
     <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B165" s="9" t="s">
@@ -10039,14 +10873,14 @@
       <c r="C165" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D165" s="69" t="s">
+      <c r="D165" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="E165" s="70"/>
-      <c r="F165" s="70"/>
-      <c r="G165" s="70"/>
-      <c r="H165" s="70"/>
-      <c r="I165" s="71"/>
+      <c r="E165" s="78"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="78"/>
+      <c r="H165" s="78"/>
+      <c r="I165" s="79"/>
     </row>
     <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B166" s="9" t="s">
@@ -10055,25 +10889,25 @@
       <c r="C166" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D166" s="69" t="s">
+      <c r="D166" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="E166" s="70"/>
-      <c r="F166" s="70"/>
-      <c r="G166" s="70"/>
-      <c r="H166" s="70"/>
-      <c r="I166" s="71"/>
+      <c r="E166" s="78"/>
+      <c r="F166" s="78"/>
+      <c r="G166" s="78"/>
+      <c r="H166" s="78"/>
+      <c r="I166" s="79"/>
     </row>
     <row r="167" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.2">
-      <c r="B167" s="44"/>
-      <c r="C167" s="45"/>
+      <c r="B167" s="83"/>
+      <c r="C167" s="84"/>
       <c r="D167" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="E167" s="85"/>
-      <c r="F167" s="85"/>
+        <v>305</v>
+      </c>
+      <c r="E167" s="49"/>
+      <c r="F167" s="49"/>
       <c r="G167" s="26" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="H167" s="26" t="s">
         <v>210</v>
@@ -10087,25 +10921,25 @@
       <c r="C168" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D168" s="69" t="s">
+      <c r="D168" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="E168" s="70"/>
-      <c r="F168" s="70"/>
-      <c r="G168" s="70"/>
-      <c r="H168" s="70"/>
-      <c r="I168" s="71"/>
+      <c r="E168" s="78"/>
+      <c r="F168" s="78"/>
+      <c r="G168" s="78"/>
+      <c r="H168" s="78"/>
+      <c r="I168" s="79"/>
     </row>
     <row r="169" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B169" s="44"/>
-      <c r="C169" s="45"/>
+      <c r="B169" s="83"/>
+      <c r="C169" s="84"/>
       <c r="D169" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="E169" s="85"/>
-      <c r="F169" s="85"/>
+        <v>386</v>
+      </c>
+      <c r="E169" s="49"/>
+      <c r="F169" s="49"/>
       <c r="G169" s="26" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="H169" s="26" t="s">
         <v>210</v>
@@ -10113,15 +10947,15 @@
       <c r="I169" s="7"/>
     </row>
     <row r="170" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B170" s="46"/>
-      <c r="C170" s="47"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="86"/>
       <c r="D170" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="E170" s="85"/>
-      <c r="F170" s="85"/>
+        <v>387</v>
+      </c>
+      <c r="E170" s="49"/>
+      <c r="F170" s="49"/>
       <c r="G170" s="26" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="H170" s="26" t="s">
         <v>210</v>
@@ -10129,15 +10963,15 @@
       <c r="I170" s="7"/>
     </row>
     <row r="171" spans="1:9" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="B171" s="48"/>
-      <c r="C171" s="49"/>
+      <c r="B171" s="87"/>
+      <c r="C171" s="88"/>
       <c r="D171" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="E171" s="85"/>
-      <c r="F171" s="85"/>
+        <v>388</v>
+      </c>
+      <c r="E171" s="49"/>
+      <c r="F171" s="49"/>
       <c r="G171" s="26" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="H171" s="26" t="s">
         <v>210</v>
@@ -10168,7 +11002,7 @@
         <v>209</v>
       </c>
       <c r="I175" s="31" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.2">
@@ -10178,14 +11012,14 @@
       <c r="C176" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D176" s="69" t="s">
+      <c r="D176" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="E176" s="70"/>
-      <c r="F176" s="70"/>
-      <c r="G176" s="70"/>
-      <c r="H176" s="70"/>
-      <c r="I176" s="71"/>
+      <c r="E176" s="78"/>
+      <c r="F176" s="78"/>
+      <c r="G176" s="78"/>
+      <c r="H176" s="78"/>
+      <c r="I176" s="79"/>
     </row>
     <row r="177" spans="2:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B177" s="9" t="s">
@@ -10194,14 +11028,14 @@
       <c r="C177" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D177" s="69" t="s">
+      <c r="D177" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E177" s="70"/>
-      <c r="F177" s="70"/>
-      <c r="G177" s="70"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="71"/>
+      <c r="E177" s="78"/>
+      <c r="F177" s="78"/>
+      <c r="G177" s="78"/>
+      <c r="H177" s="78"/>
+      <c r="I177" s="79"/>
     </row>
     <row r="178" spans="2:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B178" s="9" t="s">
@@ -10210,14 +11044,14 @@
       <c r="C178" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D178" s="69" t="s">
+      <c r="D178" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="E178" s="70"/>
-      <c r="F178" s="70"/>
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="71"/>
+      <c r="E178" s="78"/>
+      <c r="F178" s="78"/>
+      <c r="G178" s="78"/>
+      <c r="H178" s="78"/>
+      <c r="I178" s="79"/>
     </row>
     <row r="179" spans="2:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B179" s="9" t="s">
@@ -10226,14 +11060,14 @@
       <c r="C179" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D179" s="69" t="s">
+      <c r="D179" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="E179" s="70"/>
-      <c r="F179" s="70"/>
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="71"/>
+      <c r="E179" s="78"/>
+      <c r="F179" s="78"/>
+      <c r="G179" s="78"/>
+      <c r="H179" s="78"/>
+      <c r="I179" s="79"/>
     </row>
     <row r="180" spans="2:9" ht="15.6" x14ac:dyDescent="0.2">
       <c r="B180" s="9" t="s">
@@ -10242,65 +11076,29 @@
       <c r="C180" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D180" s="69" t="s">
+      <c r="D180" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="E180" s="70"/>
-      <c r="F180" s="70"/>
-      <c r="G180" s="70"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="71"/>
+      <c r="E180" s="78"/>
+      <c r="F180" s="78"/>
+      <c r="G180" s="78"/>
+      <c r="H180" s="78"/>
+      <c r="I180" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B41:C48"/>
-    <mergeCell ref="B102:C103"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="B110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D177:I177"/>
-    <mergeCell ref="D178:I178"/>
-    <mergeCell ref="D179:I179"/>
-    <mergeCell ref="D180:I180"/>
-    <mergeCell ref="D152:I152"/>
-    <mergeCell ref="D156:I156"/>
-    <mergeCell ref="D164:I164"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D166:I166"/>
-    <mergeCell ref="D168:I168"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D176:I176"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D146:I146"/>
-    <mergeCell ref="D141:I141"/>
-    <mergeCell ref="D139:I139"/>
-    <mergeCell ref="D137:I137"/>
-    <mergeCell ref="D135:I135"/>
-    <mergeCell ref="D133:I133"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D91:I91"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="B92:C98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B81:C90"/>
-    <mergeCell ref="D99:I99"/>
-    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B169:C171"/>
+    <mergeCell ref="B120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="B125:C128"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="B157:C163"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B153:C155"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B142:C145"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D124:I124"/>
@@ -10315,18 +11113,54 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D55:D56"/>
     <mergeCell ref="B67:C79"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B169:C171"/>
-    <mergeCell ref="B120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="B125:C128"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="B157:C163"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B153:C155"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B142:C145"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D91:I91"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D99:I99"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D177:I177"/>
+    <mergeCell ref="D178:I178"/>
+    <mergeCell ref="D179:I179"/>
+    <mergeCell ref="D180:I180"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="D156:I156"/>
+    <mergeCell ref="D164:I164"/>
+    <mergeCell ref="D165:I165"/>
+    <mergeCell ref="D166:I166"/>
+    <mergeCell ref="D168:I168"/>
+    <mergeCell ref="D176:I176"/>
+    <mergeCell ref="D147:I147"/>
+    <mergeCell ref="D146:I146"/>
+    <mergeCell ref="D141:I141"/>
+    <mergeCell ref="D139:I139"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="B110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D137:I137"/>
+    <mergeCell ref="D135:I135"/>
+    <mergeCell ref="D133:I133"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B41:C48"/>
+    <mergeCell ref="B102:C103"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="B92:C98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B81:C90"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
